--- a/Dataset/ChEMBL/ALK/ALK_preprocessing/ALK_g1.xlsx
+++ b/Dataset/ChEMBL/ALK/ALK_preprocessing/ALK_g1.xlsx
@@ -563,21 +563,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHEMBL3263993</t>
+          <t>CHEMBL1165499</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>452.99</v>
+        <v>436.51</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CC1CN(C)CCc2ccc(Nc3ncc(Cl)c(N[C@H]4[C@@H](C(N)=O)[C@@H]5C=C[C@H]4C5)n3)cc21</t>
+          <t>CN1CCN(c2ccc(-c3cnc4c(c3)N(Cc3cc(F)ccc3F)CCN4)cn2)CC1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -596,16 +596,16 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>CHEMBL3267806</t>
+          <t>CHEMBL1168570</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Inhibition of purified recombinant ALK (unknown origin) after 60 mins by ELISA</t>
+          <t>Inhibition of ALK by time-resolved fluorescence assay</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>CHEMBL3259567</t>
+          <t>CHEMBL1165965</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -655,18 +655,18 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>ACS Med Chem Lett</t>
+          <t>Bioorg. Med. Chem.</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BACF4C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D8AC0&gt;</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -678,26 +678,30 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHEMBL3924929</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>CHEMBL603469</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>LESTAURTINIB</t>
+        </is>
+      </c>
       <c r="C3" t="n">
-        <v>491.62</v>
+        <v>439.47</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.85</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CN(C)S(=O)(=O)N1CCN(c2ccc3c(c2)C(C)(C)c2c(c4ccc(C#N)cc4n2C)C3=O)CC1</t>
+          <t>C[C@]12O[C@H](C[C@]1(O)CO)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)CNC4=O</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>IC50</t>
+          <t>Kd</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -711,16 +715,16 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>63.8</v>
+        <v>71</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>CHEMBL3887074</t>
+          <t>CHEMBL1244722</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
+          <t>Binding affinity to ALK</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -735,7 +739,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -760,24 +764,28 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>CHEMBL3886150</t>
+          <t>CHEMBL1240346</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>BindingDB Database</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Blood</t>
+        </is>
+      </c>
       <c r="V3" t="n">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="W3" t="n">
         <v>1</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F973990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D8C10&gt;</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -789,26 +797,30 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL3288854</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>CHEMBL509032</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TAE-684</t>
+        </is>
+      </c>
       <c r="C4" t="n">
-        <v>425.51</v>
+        <v>614.22</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cc1[nH]c(/C=C2\C(=O)Nc3ccc(F)cc32)c(C)c1NC(=O)CCN1CCN(C)CC1</t>
+          <t>COc1cc(N2CCC(N3CCN(C)CC3)CC2)ccc1Nc1ncc(Cl)c(Nc2ccccc2S(=O)(=O)C(C)C)n1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ki</t>
+          <t>IC50</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -822,16 +834,16 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>95</v>
+        <v>1.6</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>CHEMBL3296764</t>
+          <t>CHEMBL3267806</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Binding affinity to ALK (unknown origin)</t>
+          <t>Inhibition of purified recombinant ALK (unknown origin) after 60 mins by ELISA</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -871,7 +883,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>CHEMBL3286339</t>
+          <t>CHEMBL3259567</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -881,7 +893,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>Eur J Med Chem</t>
+          <t>ACS Med. Chem. Lett.</t>
         </is>
       </c>
       <c r="V4" t="n">
@@ -892,7 +904,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F973A00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D8C80&gt;</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -904,21 +916,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL4551774</t>
+          <t>CHEMBL1822525</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>461.54</v>
+        <v>565.7</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>COc1cc(N2CCN(C(C)C)CC2)ccc1-c1n[nH]c2nc(-c3ccc(O)c(F)c3)ccc12</t>
+          <t>COc1cc(N2CCN(C[C@H](C)O)CC2)ccc1Nc1ncc2ccc(-c3ccccc3N(C)S(C)(=O)=O)n2n1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -937,16 +949,16 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>53.08</v>
+        <v>10</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>CHEMBL4370936</t>
+          <t>CHEMBL1825977</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Inhibition of recombinant ALK (unknown origin) using peptide substrate measured after 1 hr by LanthaScreen assay</t>
+          <t>Inhibition of human recombinant ALK assessed as phosphorylated product using PLC-gamma/GST substrate by modified ELISA method</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -986,7 +998,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>CHEMBL4368941</t>
+          <t>CHEMBL1821719</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -996,18 +1008,18 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>Bioorg Med Chem Lett</t>
+          <t>J. Med. Chem.</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="W5" t="n">
         <v>1</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F973A70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D8D60&gt;</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1019,21 +1031,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL1822520</t>
+          <t>CHEMBL3897963</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>488.59</v>
+        <v>393.55</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>5.49</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>COc1cc(N2CCN(C[C@H](C)O)CC2)ccc1Nc1ncc2ccc(-c3ccccc3OC)n2n1</t>
+          <t>CCN(CC)CCOc1ccc2c(c1)C(C)(C)c1sc3ccccc3c1C2=O</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1052,16 +1064,16 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>93.84999999999999</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>CHEMBL1825977</t>
+          <t>CHEMBL3887074</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Inhibition of human recombinant ALK assessed as phosphorylated product using PLC-gamma/GST substrate by modified ELISA method</t>
+          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1101,28 +1113,24 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>CHEMBL1821719</t>
+          <t>CHEMBL3886150</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>J Med Chem</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr"/>
       <c r="V6" t="n">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="W6" t="n">
         <v>1</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F973AE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D8DD0&gt;</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1134,21 +1142,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL4455547</t>
+          <t>CHEMBL1778720</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>360.42</v>
+        <v>330.39</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Oc1ccc(-c2ccc3c(-c4cnn(C5CCNCC5)c4)n[nH]c3n2)cc1</t>
+          <t>Cc1cc(-c2cccc(N)c2)c(/C=C2\C(=O)Nc3ccc(N)cc32)[nH]1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1167,16 +1175,16 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>13.76</v>
+        <v>50.8</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>CHEMBL4370936</t>
+          <t>CHEMBL1781025</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Inhibition of recombinant ALK (unknown origin) using peptide substrate measured after 1 hr by LanthaScreen assay</t>
+          <t>Inhibition of ALK using FL-Peptide 13, 5-FAM-KKSRGDYMTMQIG-CONH2 substrate after 60 mins by mobility shift assay</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1191,7 +1199,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1216,7 +1224,7 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>CHEMBL4368941</t>
+          <t>CHEMBL1777751</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1226,18 +1234,18 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>Bioorg Med Chem Lett</t>
+          <t>Bioorg. Med. Chem.</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="W7" t="n">
         <v>1</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F973B50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D8E40&gt;</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1249,21 +1257,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL3823198</t>
+          <t>CHEMBL464552</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>579.6900000000001</v>
+        <v>532.58</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>COc1cc(N2CCC(N3CCN(C)CC3)CC2)ccc1Nc1ncc(OC)c(Nc2ccccc2P(C)(C)=O)n1</t>
+          <t>CNC(=O)c1c(F)cccc1Nc1nc(Nc2cc3c(cc2OC)CCN3C(=O)CN(C)C)nc2[nH]ccc12</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1282,16 +1290,16 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1.19</v>
+        <v>0.5</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>CHEMBL3824709</t>
+          <t>CHEMBL4378233</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Inhibition of human ALK using poly[Glu:Tyr] (4:1) as substrate and [gamma-33P]ATP measured after 1 hr</t>
+          <t>Inhibition of ALK (unknown origin)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1331,7 +1339,7 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>CHEMBL3822358</t>
+          <t>CHEMBL4376817</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1345,14 +1353,14 @@
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="W8" t="n">
         <v>1</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F973BC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D8F20&gt;</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1364,21 +1372,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL4764610</t>
+          <t>CHEMBL1796259</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>475.57</v>
+        <v>523.1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>COc1cc2c(=O)c3c4ccc(C#N)cc4[nH]c3n(C(C)C)c2c(F)c1N1C[C@@H](C)N(C)[C@@H](C)C1</t>
+          <t>COCCN1CCc2ccc(Nc3ncc(Cl)c(N[C@H]4CC[C@H](NS(C)(=O)=O)CC4)n3)cc2CC1</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1397,16 +1405,16 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>5.6</v>
+        <v>100</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>CHEMBL4705518</t>
+          <t>CHEMBL1798383</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Inhibition of human ALK</t>
+          <t>Inhibition of ALK</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1421,7 +1429,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1446,7 +1454,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>CHEMBL4699642</t>
+          <t>CHEMBL1795227</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1456,18 +1464,18 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>J Med Chem</t>
+          <t>Bioorg. Med. Chem. Lett.</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="W9" t="n">
         <v>1</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F973C30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D8F90&gt;</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1479,21 +1487,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL560733</t>
+          <t>CHEMBL3357437</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>441.5</v>
+        <v>523</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cc1cc(O)cc(-c2nn(CC#N)cc2-c2cc(NC[C@H](C)O)nc(-c3cccnc3)n2)c1</t>
+          <t>CNC(=O)c1ccccc1Nc1nc(Nc2cccc(NC(=O)CNC(=O)C3CCCN3)c2)ncc1Cl</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1512,16 +1520,16 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.6</v>
+        <v>80.3</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>CHEMBL3399441</t>
+          <t>CHEMBL3364272</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Inhibition of ALK (unknown origin) incubated for 20 mins followed by [33P]ATP addition measured after 120 mins by HotSpot assay</t>
+          <t>Inhibition of ALK (unknown origin) after 60 mins by ELISA</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1561,7 +1569,7 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>CHEMBL3396973</t>
+          <t>CHEMBL3351234</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -1571,7 +1579,7 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>Eur J Med Chem</t>
+          <t>J. Med. Chem.</t>
         </is>
       </c>
       <c r="V10" t="n">
@@ -1582,7 +1590,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F973CA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9000&gt;</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1594,26 +1602,30 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL3893380</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>CHEMBL1230609</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FORETINIB</t>
+        </is>
+      </c>
       <c r="C11" t="n">
-        <v>455.56</v>
+        <v>632.66</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CC1(C)c2cc(OCC3CCN(C4COC4)CC3)ccc2C(=O)c2c1[nH]c1cc(C#N)ccc21</t>
+          <t>COc1cc2c(Oc3ccc(NC(=O)C4(C(=O)Nc5ccc(F)cc5)CC4)cc3F)ccnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>IC50</t>
+          <t>Kd</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1627,16 +1639,16 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>2.9</v>
+        <v>69</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>CHEMBL3887074</t>
+          <t>CHEMBL1908641</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
+          <t>Binding constant for ALK kinase domain</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1651,7 +1663,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1676,24 +1688,28 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>CHEMBL3886150</t>
+          <t>CHEMBL1908390</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>BindingDB Database</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Nat. Biotechnol.</t>
+        </is>
+      </c>
       <c r="V11" t="n">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="W11" t="n">
         <v>1</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F973D10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9070&gt;</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1705,21 +1721,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEMBL1796253</t>
+          <t>CHEMBL1165334</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>457.02</v>
+        <v>550.53</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CCN1CCc2ccc(Nc3ncc(Cl)c(N[C@@H]4CCCC[C@H]4NC(C)=O)n3)cc2CC1</t>
+          <t>O=C(c1ccc(-c2cnc3c(c2)N(Cc2c(Cl)cccc2Cl)CCN3)cc1)N1CCC[C@H]1CN1CCCC1</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1738,16 +1754,16 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>CHEMBL1798383</t>
+          <t>CHEMBL1168570</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Inhibition of ALK</t>
+          <t>Inhibition of ALK by time-resolved fluorescence assay</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1787,7 +1803,7 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>CHEMBL1795227</t>
+          <t>CHEMBL1165965</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -1797,18 +1813,18 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>Bioorg Med Chem Lett</t>
+          <t>Bioorg. Med. Chem.</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="W12" t="n">
         <v>1</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F973D80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D90E0&gt;</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1820,30 +1836,26 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHEMBL1230609</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>FORETINIB</t>
-        </is>
-      </c>
+          <t>CHEMBL3116050</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>632.66</v>
+        <v>353.37</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>COc1cc2c(Oc3ccc(NC(=O)C4(C(=O)Nc5ccc(F)cc5)CC4)cc3F)ccnc2cc1OCCCN1CCOCC1</t>
+          <t>C[C@H](Nc1nc(Nc2cn(C)cn2)c2cc[nH]c2n1)c1ncc(F)cn1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kd</t>
+          <t>IC50</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1857,16 +1869,16 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>CHEMBL1908641</t>
+          <t>CHEMBL3118217</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Binding constant for ALK kinase domain</t>
+          <t>Inhibition of human ALK</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1881,7 +1893,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1906,7 +1918,7 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>CHEMBL1908390</t>
+          <t>CHEMBL3112447</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -1916,18 +1928,18 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>Nat Biotechnol</t>
+          <t>J. Med. Chem.</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="W13" t="n">
         <v>1</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F973DF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9150&gt;</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -1939,30 +1951,26 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHEMBL603469</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>LESTAURTINIB</t>
-        </is>
-      </c>
+          <t>CHEMBL1684800</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>439.47</v>
+        <v>572.98</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>C[C@]12O[C@H](C[C@]1(O)CO)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)CNC4=O</t>
+          <t>COc1ccc(Cn2ncc(NC(=O)c3cc(NC(=O)Nc4ccc(Cl)c(C(F)(F)F)c4)ccc3C)c2N)cc1</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kd</t>
+          <t>IC50</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1976,16 +1984,16 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>71</v>
+        <v>2.71</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>CHEMBL1908641</t>
+          <t>CHEMBL1687353</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Binding constant for ALK kinase domain</t>
+          <t>Inhibition of ALK</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -2025,7 +2033,7 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>CHEMBL1908390</t>
+          <t>CHEMBL1681781</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -2035,7 +2043,7 @@
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>Nat Biotechnol</t>
+          <t>Bioorg. Med. Chem.</t>
         </is>
       </c>
       <c r="V14" t="n">
@@ -2046,7 +2054,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F973E60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D91C0&gt;</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2058,21 +2066,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHEMBL1684800</t>
+          <t>CHEMBL3977731</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>572.98</v>
+        <v>657.7</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>COc1ccc(Cn2ncc(NC(=O)c3cc(NC(=O)Nc4ccc(Cl)c(C(F)(F)F)c4)ccc3C)c2N)cc1</t>
+          <t>CCNC(=O)N1CCN(c2ccc(Nc3nc(Nc4ccc(N5CCN(C(C)=O)CC5)cc4OC)ncc3F)c(OC(F)F)c2)CC1</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2091,16 +2099,16 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>2.71</v>
+        <v>32</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>CHEMBL1687353</t>
+          <t>CHEMBL3887132</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Inhibition of ALK</t>
+          <t>Homogeneous Time-resolved fluorescence (HTRF) Assay: In order to measure the inhibitory activity against ALK, a Grainer 96-well round type bottom plate was added with the compounds (2 μl) prepared in Examples 1 to 89, and mixed with ALK enzyme (1 ul) and a peptide substrate (2 μl) with biotin attached thereto for 15 minutes and cultured thereafter. Here, ATP solution (5 μl) was added thereto and kinase reaction was performed at room temperature for 30 minutes. XL 665 (5 μl), to which Streptavidin dissolved in ethylenediaminetetraacetic acid solution was attached, anti-phosphotyrosine antibody (5 μl), to which europium (Eu3+) was attached, were added to a reaction solution to stop the reaction, cultured for 1 hour, and analyzed using Homogeneous Time-resolved fluorescence (HTRF, Cisbio). The result was read by a Wallac Envision 2103 device at the wavelength range of 615/665 nm.</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -2115,7 +2123,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2140,28 +2148,24 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>CHEMBL1681781</t>
+          <t>CHEMBL3886178</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>Bioorg Med Chem</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr"/>
       <c r="V15" t="n">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="W15" t="n">
         <v>1</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F973ED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9230&gt;</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2173,26 +2177,26 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHEMBL4102556</t>
+          <t>CHEMBL3288854</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>388.45</v>
+        <v>425.51</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Fc1ccccc1Oc1ccnc2cc(-c3cnn(C4CCNCC4)c3)ccc12</t>
+          <t>Cc1[nH]c(/C=C2\C(=O)Nc3ccc(F)cc32)c(C)c1NC(=O)CCN1CCN(C)CC1</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>IC50</t>
+          <t>Ki</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -2206,16 +2210,16 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>35.4</v>
+        <v>95</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>CHEMBL4026782</t>
+          <t>CHEMBL3296764</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Inhibition of human wild type ALK using YRRAAVPPSPSLSRHSSPHQ(pS)EDEEE as substrate preincubated for 20 mins followed by [gamma-33P]-ATP addition after 2 hrs by filter binding assay</t>
+          <t>Binding affinity to ALK (unknown origin)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -2255,7 +2259,7 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>CHEMBL4024756</t>
+          <t>CHEMBL3286339</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -2265,18 +2269,18 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>J Med Chem</t>
+          <t>Eur. J. Med. Chem.</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="W16" t="n">
         <v>1</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F973F40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D92A0&gt;</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2288,21 +2292,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHEMBL3357441</t>
+          <t>CHEMBL4075720</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>461.94</v>
+        <v>448.56</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CS(=O)(=O)Nc1ccccc1Nc1nc(Nc2cccc(NC(=O)CN)c2)ncc1Cl</t>
+          <t>CN1CCN(Cc2ccc(NC(=O)c3n[nH]cc3Nc3ncnc4sccc34)cc2)CC1</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2321,16 +2325,16 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>94.5</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>CHEMBL3364272</t>
+          <t>CHEMBL4059199</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Inhibition of ALK (unknown origin) after 60 mins by ELISA</t>
+          <t>Inhibition of human ALK using poly[Glu:Tyr] (4:1) as substrate preincubated for 20 mins followed by [gamma-33P]-ATP addition measure after 120 mins by filter binding method</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -2370,7 +2374,7 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>CHEMBL3351234</t>
+          <t>CHEMBL4052828</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -2384,14 +2388,14 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="W17" t="n">
         <v>1</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F96B920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9310&gt;</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2403,21 +2407,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHEMBL3785722</t>
+          <t>CHEMBL4067871</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>553.73</v>
+        <v>467.96</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Cc1cc(Nc2ncc(C)c(Nc3cn(C)nc3S(=O)(=O)C(C)C)n2)c(OC2CC2)cc1C1CCN(C)CC1</t>
+          <t>OC[C@H](Nc1cnc(-c2cc(Cl)ccc2O)c(-c2ccc3cnccc3c2)c1)c1ccccc1</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2436,16 +2440,16 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>CHEMBL3791911</t>
+          <t>CHEMBL4018644</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Inhibition of recombinant human ALK L1196M mutant using tyrosine kinase substrate-biotin after 30 mins by HTRF assay</t>
+          <t>Inhibition of recombinant ALK (unknown origin) using poly (Glu,Tyr) 4:1 as substrate after 60 mins by ELISA</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -2485,7 +2489,7 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>CHEMBL3785058</t>
+          <t>CHEMBL4017490</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
@@ -2495,18 +2499,18 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>Bioorg Med Chem Lett</t>
+          <t>J Med Chem</t>
         </is>
       </c>
       <c r="V18" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="W18" t="n">
         <v>1</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F96B990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9380&gt;</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2518,21 +2522,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CHEMBL2172325</t>
+          <t>CHEMBL560733</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>487.65</v>
+        <v>441.5</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CCNC(=O)[C@H]1CC[C@@H](n2/c(=N/C(=O)c3ccccc3)[nH]c3ccc(CN4CCCCC4)cc32)CC1</t>
+          <t>Cc1cc(O)cc(-c2nn(CC#N)cc2-c2cc(NC[C@H](C)O)nc(-c3cccnc3)n2)c1</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2551,16 +2555,16 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>CHEMBL2176371</t>
+          <t>CHEMBL3399441</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Inhibition of ALK enzyme</t>
+          <t>Inhibition of ALK (unknown origin) incubated for 20 mins followed by [33P]ATP addition measured after 120 mins by HotSpot assay</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2575,7 +2579,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2600,7 +2604,7 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>CHEMBL2169770</t>
+          <t>CHEMBL3396973</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -2610,18 +2614,18 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>J Med Chem</t>
+          <t>Eur. J. Med. Chem.</t>
         </is>
       </c>
       <c r="V19" t="n">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="W19" t="n">
         <v>1</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F96BA00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D93F0&gt;</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2633,21 +2637,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CHEMBL3985396</t>
+          <t>CHEMBL2401832</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>617.97</v>
+        <v>465.31</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5.26</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CC(=O)N1CCN(c2ccc(Nc3ncc(Cl)c(Nc4ccc(N5CCN(C(C)=O)CC5)cc4Cl)n3)c(Cl)c2)CC1</t>
+          <t>C[C@@H](Oc1c(N)ncc2c(C3=CCN(C(N)=O)CC3)coc12)c1c(Cl)ccc(F)c1Cl</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2670,12 +2674,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>CHEMBL3887132</t>
+          <t>CHEMBL2406475</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Homogeneous Time-resolved fluorescence (HTRF) Assay: In order to measure the inhibitory activity against ALK, a Grainer 96-well round type bottom plate was added with the compounds (2 μl) prepared in Examples 1 to 89, and mixed with ALK enzyme (1 ul) and a peptide substrate (2 μl) with biotin attached thereto for 15 minutes and cultured thereafter. Here, ATP solution (5 μl) was added thereto and kinase reaction was performed at room temperature for 30 minutes. XL 665 (5 μl), to which Streptavidin dissolved in ethylenediaminetetraacetic acid solution was attached, anti-phosphotyrosine antibody (5 μl), to which europium (Eu3+) was attached, were added to a reaction solution to stop the reaction, cultured for 1 hour, and analyzed using Homogeneous Time-resolved fluorescence (HTRF, Cisbio). The result was read by a Wallac Envision 2103 device at the wavelength range of 615/665 nm.</t>
+          <t>Inhibition of ALK (unknown origin) autophosphorylation</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2715,24 +2719,28 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>CHEMBL3886178</t>
+          <t>CHEMBL2401646</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>BindingDB Database</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Bioorg. Med. Chem. Lett.</t>
+        </is>
+      </c>
       <c r="V20" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="W20" t="n">
         <v>1</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F96BA70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9460&gt;</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2836,7 +2844,7 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>Bioorg Med Chem Lett</t>
+          <t>Bioorg. Med. Chem. Lett.</t>
         </is>
       </c>
       <c r="V21" t="n">
@@ -2847,7 +2855,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F96BAE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D94D0&gt;</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -2859,21 +2867,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHEMBL4543331</t>
+          <t>CHEMBL1922982</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>534.73</v>
+        <v>432.48</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CCOc1cc(C2CCN(C)CC2)ccc1Nc1ncc2c(n1)N(Cc1sccc1C)[C@H](CC)C(=O)N2C</t>
+          <t>Cn1cc(/C=C2\C(=O)NN=C2c2nccs2)c2c(OCc3ccc(F)cc3)cccc21</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2896,12 +2904,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>CHEMBL4401876</t>
+          <t>CHEMBL1925015</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Displacement of kinase tracer 236 from human N-terminal GST-tagged ALK F1174L mutant (1058 to 1620 residues) after 60 mins by LanthaScreen Eu--kinase binding assay</t>
+          <t>Inhibition of ALK</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2916,7 +2924,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2941,7 +2949,7 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>CHEMBL4400550</t>
+          <t>CHEMBL1921676</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
@@ -2951,18 +2959,18 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>J Med Chem</t>
+          <t>Bioorg. Med. Chem. Lett.</t>
         </is>
       </c>
       <c r="V22" t="n">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="W22" t="n">
         <v>1</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F96BB50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9540&gt;</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -2974,26 +2982,26 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEMBL4168701</t>
+          <t>CHEMBL3908626</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>649.73</v>
+        <v>526.4299999999999</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>COc1ccc(NC(=O)CNC(=O)c2cc(C(C)C)c(O)cc2O)cc1Nc1ncnc(Nc2ccccc2S(=O)(=O)C(C)C)n1</t>
+          <t>COc1cc(C2CCNCC2)ccc1Nc1nc(Cc2cccc(Cl)c2Cl)n2cnnc2c1C(N)=O</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>IC50</t>
+          <t>Ki</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -3007,16 +3015,16 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>CHEMBL4146207</t>
+          <t>CHEMBL3887723</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Inhibition of recombinant ALK (unknown origin) using poly (Glu,Tyr) 4:1 as substrate incubated for 60 mins by ELISA</t>
+          <t>Enzyme Inhibition Assay: ALK kinase assays were conducted with the indicated final concentrations unless otherwise specified. In 384 well black plates (Axygen), 8 ul of compound (2% DMSO) was incubated with 8 ul Lck-peptide substrate (0.5 uM, biotin-Ahx-GAEEEIYAAFFA-COOH) and 8 ul of a mixture of ALK (3 nM, Millipore) and ATP (50 uM) in reaction buffer (50 mM Hepes, pH 7.4; 10 mM MgCl2; 2 mM MnCl2; 0.1 mM sodium orthovanadate; 0.01% BSA and 1 mM DTT (added fresh before assay) for 1 h at room temperature. Reactions were then quenched by the addition of 30 ul quench solution (streptavidin-allophycocyanin and Europium-cryptate PT66 monoclonal antibody in 40 mM Hepes, pH 7.4; 480 mM KF; 66 mM EDTA; 0.01% Tween-20; and 0.1% BSA) at room temperature. Plates were read 1 h after quenching on an Envision Multilaber Reader and IC50 values were calculated using a sigmoidal fit of the concentration/inhibition response curves. These values were converted to apparent Ki values.</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -3056,28 +3064,24 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>CHEMBL4145454</t>
+          <t>CHEMBL3886424</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>Eur J Med Chem</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr"/>
       <c r="V23" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W23" t="n">
         <v>1</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F96BC30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D95B0&gt;</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3089,21 +3093,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHEMBL3330850</t>
+          <t>CHEMBL3924929</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>429.94</v>
+        <v>491.62</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CNC(=O)c1ccccc1Nc1nc(Nc2nc3c(s2)CCNCC3)ncc1Cl</t>
+          <t>CN(C)S(=O)(=O)N1CCN(c2ccc3c(c2)C(C)(C)c2c(c4ccc(C#N)cc4n2C)C3=O)CC1</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -3122,16 +3126,16 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>61.8</v>
+        <v>63.8</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>CHEMBL3383505</t>
+          <t>CHEMBL3887074</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Inhibition of purified ALK (unknown origin) after 60 mins by ELISA kinase assay</t>
+          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -3171,28 +3175,24 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>CHEMBL3352334</t>
+          <t>CHEMBL3886150</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>Eur J Med Chem</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr"/>
       <c r="V24" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="W24" t="n">
         <v>1</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F96BCA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9690&gt;</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3204,21 +3204,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHEMBL3116050</t>
+          <t>CHEMBL3651886</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>353.37</v>
+        <v>592.77</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>C[C@H](Nc1nc(Nc2cn(C)cn2)c2cc[nH]c2n1)c1ncc(F)cn1</t>
+          <t>CCN1CCC(c2cc(OC(C)C)c(Nc3nc(Nc4ccccc4S(=O)(=O)C(C)C)c4[nH]nnc4n3)cc2C)CC1</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -3237,16 +3237,16 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>CHEMBL3118217</t>
+          <t>CHEMBL3705165</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Inhibition of human ALK</t>
+          <t>Enzyme Assay: The inhibition of ALK tyrosine kinase activity may be demonstrated using known methods, for example using the recombinant kinase domain of the ALK in analogy to the VEGF-R kinase assay described in J. Wood et al. Cancer Res. 60, 2178-2189 (2000).</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -3286,28 +3286,24 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>CHEMBL3112447</t>
+          <t>CHEMBL3638924</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>J Med Chem</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr"/>
       <c r="V25" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="W25" t="n">
         <v>1</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F96BD10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9700&gt;</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3319,21 +3315,21 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CHEMBL3938280</t>
+          <t>CHEMBL3262356</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>379.81</v>
+        <v>389.46</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>CC1(C)c2cc(O)c(-c3nn[nH]n3)cc2C(=O)c2c1[nH]c1cc(Cl)ccc21</t>
+          <t>N[C@H]1CCCC[C@H]1Nc1cc2nc[nH]c(=O)c2c(Nc2cccc3cc[nH]c23)n1</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3352,16 +3348,16 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0.456</v>
+        <v>70</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>CHEMBL3887074</t>
+          <t>CHEMBL3269109</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
+          <t>Inhibition of ALK (unknown origin)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -3401,24 +3397,28 @@
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>CHEMBL3886150</t>
+          <t>CHEMBL3259804</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>BindingDB Database</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Bioorg. Med. Chem. Lett.</t>
+        </is>
+      </c>
       <c r="V26" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="W26" t="n">
         <v>1</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F96BD80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D97E0&gt;</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3430,21 +3430,21 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CHEMBL3963805</t>
+          <t>CHEMBL1642265</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>532.46</v>
+        <v>541.05</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>COc1cc2c(cc1S(=O)(=O)N1CCN(C)CC1)C(=O)c1c([nH]c3cc(Br)ccc13)C2(C)C</t>
+          <t>COc1ccc(Nc2nc(Nc3cc4c(cc3OC)CCN(CC(=O)N(C)C)CC4)ncc2Cl)c(OC)c1</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -3463,16 +3463,16 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>96.12</v>
+        <v>5</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>CHEMBL3887074</t>
+          <t>CHEMBL1648480</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
+          <t>Inhibition of ALK</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -3487,7 +3487,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>None</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -3512,24 +3512,28 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>CHEMBL3886150</t>
+          <t>CHEMBL1641404</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>BindingDB Database</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Bioorg. Med. Chem. Lett.</t>
+        </is>
+      </c>
       <c r="V27" t="n">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="W27" t="n">
         <v>1</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F96BDF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9850&gt;</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3541,21 +3545,21 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CHEMBL3669134</t>
+          <t>CHEMBL3963805</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>502.64</v>
+        <v>532.46</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>COc1cc(N2CCN(C(C)C)CC2)ccc1Nc1ncc2sc(C(N)=O)c(-c3ccccc3)c2n1</t>
+          <t>COc1cc2c(cc1S(=O)(=O)N1CCN(C)CC1)C(=O)c1c([nH]c3cc(Br)ccc13)C2(C)C</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3574,16 +3578,16 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>28</v>
+        <v>96.12</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>CHEMBL3705810</t>
+          <t>CHEMBL3887074</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>In Vitro Inhibition Assay: The reagents used have the following composition: Enzyme buffer (EB): 50 mM HEPES (pH: 7.0) (Sigma H7523), 100 mM NaCl (Sigma S7653), NaN.sub.3 at 0.01% (Sigma S8032), BSA at 0.005% (Sigma A2153), 0.05 mM sodium orthovanadate (Calbiochem 567540). Detection buffer (DB): 50 mM HEPES (pH: 7.0), BSA at 0.1%, 0.8 M KF (Fluka 60239), 20 mM EDTA (Sigma E5134).The peptide used is the one described in Biochemistry, 2005, 44, 8533-8542; A-21-K(biotin)NH.sub.2, obtained from NeoMPS (reference SP081233). All the HTRF reagents Mab PT66-K (61T66KLB) and streptavidin-XL665 (610SAXLB), and the SEB reagent, are purchased from Cisbio.The test is carried out in a 384-well plate (Greiner 784076). The serial dilutions are carried out in pure DMSO, and then an intermediate one-in-three dilution in water is carried out, with 1 microliter of each concentration being distributed, all these operations being performed using the Zephyr apparatus (Caliper Life Sciences).</t>
+          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -3623,7 +3627,7 @@
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>CHEMBL3639289</t>
+          <t>CHEMBL3886150</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
@@ -3640,7 +3644,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F96BE60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D98C0&gt;</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3652,21 +3656,21 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CHEMBL2418759</t>
+          <t>CHEMBL4586635</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>369.43</v>
+        <v>378.41</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Cn1cc(-c2cnc3[nH]cc(-c4cnn(Cc5cccc(N)c5)c4)c3c2)cn1</t>
+          <t>Oc1ccc(-c2ccc3c(-c4cnn(C5CCNCC5)c4)n[nH]c3n2)cc1F</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3685,16 +3689,16 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>28</v>
+        <v>39.64</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>CHEMBL2423641</t>
+          <t>CHEMBL4370936</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Inhibition of wild type human recombinant ALK after 30 mins by TR-FRET assay</t>
+          <t>Inhibition of recombinant ALK (unknown origin) using peptide substrate measured after 1 hr by LanthaScreen assay</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -3734,7 +3738,7 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>CHEMBL2417505</t>
+          <t>CHEMBL4368941</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
@@ -3748,14 +3752,14 @@
         </is>
       </c>
       <c r="V29" t="n">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="W29" t="n">
         <v>1</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F96BED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D99A0&gt;</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -3767,21 +3771,21 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CHEMBL3948122</t>
+          <t>CHEMBL4543331</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>331.38</v>
+        <v>534.73</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>COc1ccc2c(c1)C(C)(C)c1[nH]c3c(N)c(C#N)ccc3c1C2=O</t>
+          <t>CCOc1cc(C2CCN(C)CC2)ccc1Nc1ncc2c(n1)N(Cc1sccc1C)[C@H](CC)C(=O)N2C</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3800,16 +3804,16 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1.93</v>
+        <v>63</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>CHEMBL3887074</t>
+          <t>CHEMBL4401876</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
+          <t>Displacement of kinase tracer 236 from human N-terminal GST-tagged ALK F1174L mutant (1058 to 1620 residues) after 60 mins by LanthaScreen Eu--kinase binding assay</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -3849,24 +3853,28 @@
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>CHEMBL3886150</t>
+          <t>CHEMBL4400550</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>BindingDB Database</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>J Med Chem</t>
+        </is>
+      </c>
       <c r="V30" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="W30" t="n">
         <v>1</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F96BF40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9A10&gt;</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -3878,21 +3886,21 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CHEMBL1822513</t>
+          <t>CHEMBL3734798</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>384.49</v>
+        <v>450.35</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>CN1CCN(c2ccc(Nc3ncc4ccc(-c5ccccc5)n4n3)cc2)CC1</t>
+          <t>C[C@@H](Oc1cc(-c2ccn(C3CCNCC3)n2)cnc1N)c1c(Cl)ccc(F)c1Cl</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3911,16 +3919,16 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>CHEMBL1825977</t>
+          <t>CHEMBL4716834</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Inhibition of human recombinant ALK assessed as phosphorylated product using PLC-gamma/GST substrate by modified ELISA method</t>
+          <t>Inhibition of ALK (unknown origin)</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -3960,7 +3968,7 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>CHEMBL1821719</t>
+          <t>CHEMBL4715698</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
@@ -3970,18 +3978,18 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>J Med Chem</t>
+          <t>Bioorg Med Chem Lett</t>
         </is>
       </c>
       <c r="V31" t="n">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="W31" t="n">
         <v>1</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002517F96BBC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9A80&gt;</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -3993,21 +4001,21 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CHEMBL3945435</t>
+          <t>CHEMBL3604650</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
-        <v>414.55</v>
+        <v>535.0700000000001</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>CC1(C)c2cc(N3CCC(N4CCCC4)CC3)ccc2C(=O)c2c1[nH]c1ncccc21</t>
+          <t>COCCc1cc(OC2CC2)c(Nc2ncc(Cl)c(Nc3cn(C)nc3S(=O)(=O)C(C)C)n2)cc1C</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -4026,16 +4034,16 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>30.74</v>
+        <v>7</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>CHEMBL3887074</t>
+          <t>CHEMBL3607641</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
+          <t>Inhibition of ALK L1196M mutant (unknown origin) using TK substrate-biotin incubated for 30 mins by HTRF assay</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -4075,15 +4083,19 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>CHEMBL3886150</t>
+          <t>CHEMBL3603807</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>BindingDB Database</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Bioorg. Med. Chem. Lett.</t>
+        </is>
+      </c>
       <c r="V32" t="n">
         <v>2015</v>
       </c>
@@ -4092,7 +4104,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3F40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9AF0&gt;</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -4104,26 +4116,26 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CHEMBL3949679</t>
+          <t>CHEMBL4461630</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>612.52</v>
+        <v>413.53</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>COc1cc(C(=O)NCCCN2CCOCC2)ccc1Nc1nc(Cc2c(Cl)cccc2Cl)n2ccnc2c1C(N)=O</t>
+          <t>CC(C)N1CCN(c2ccc(-c3n[nH]c4nc(-c5ccc(O)cc5)ccc34)cc2)CC1</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ki</t>
+          <t>IC50</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -4137,16 +4149,16 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>47.4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>CHEMBL3887723</t>
+          <t>CHEMBL4370936</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Enzyme Inhibition Assay: ALK kinase assays were conducted with the indicated final concentrations unless otherwise specified. In 384 well black plates (Axygen), 8 ul of compound (2% DMSO) was incubated with 8 ul Lck-peptide substrate (0.5 uM, biotin-Ahx-GAEEEIYAAFFA-COOH) and 8 ul of a mixture of ALK (3 nM, Millipore) and ATP (50 uM) in reaction buffer (50 mM Hepes, pH 7.4; 10 mM MgCl2; 2 mM MnCl2; 0.1 mM sodium orthovanadate; 0.01% BSA and 1 mM DTT (added fresh before assay) for 1 h at room temperature. Reactions were then quenched by the addition of 30 ul quench solution (streptavidin-allophycocyanin and Europium-cryptate PT66 monoclonal antibody in 40 mM Hepes, pH 7.4; 480 mM KF; 66 mM EDTA; 0.01% Tween-20; and 0.1% BSA) at room temperature. Plates were read 1 h after quenching on an Envision Multilaber Reader and IC50 values were calculated using a sigmoidal fit of the concentration/inhibition response curves. These values were converted to apparent Ki values.</t>
+          <t>Inhibition of recombinant ALK (unknown origin) using peptide substrate measured after 1 hr by LanthaScreen assay</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -4186,24 +4198,28 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>CHEMBL3886424</t>
+          <t>CHEMBL4368941</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>BindingDB Database</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Bioorg Med Chem Lett</t>
+        </is>
+      </c>
       <c r="V33" t="n">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="W33" t="n">
         <v>1</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3ED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9B60&gt;</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -4215,21 +4231,21 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CHEMBL1778720</t>
+          <t>CHEMBL1822513</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>330.39</v>
+        <v>384.49</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Cc1cc(-c2cccc(N)c2)c(/C=C2\C(=O)Nc3ccc(N)cc32)[nH]1</t>
+          <t>CN1CCN(c2ccc(Nc3ncc4ccc(-c5ccccc5)n4n3)cc2)CC1</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -4248,16 +4264,16 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>50.8</v>
+        <v>48</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>CHEMBL1781025</t>
+          <t>CHEMBL1825977</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Inhibition of ALK using FL-Peptide 13, 5-FAM-KKSRGDYMTMQIG-CONH2 substrate after 60 mins by mobility shift assay</t>
+          <t>Inhibition of human recombinant ALK assessed as phosphorylated product using PLC-gamma/GST substrate by modified ELISA method</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -4272,7 +4288,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -4297,7 +4313,7 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>CHEMBL1777751</t>
+          <t>CHEMBL1821719</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
@@ -4307,7 +4323,7 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>Bioorg Med Chem</t>
+          <t>J. Med. Chem.</t>
         </is>
       </c>
       <c r="V34" t="n">
@@ -4318,7 +4334,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3E60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9BD0&gt;</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -4330,21 +4346,21 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHEMBL3734798</t>
+          <t>CHEMBL3263993</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>450.35</v>
+        <v>452.99</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-c2ccn(C3CCNCC3)n2)cnc1N)c1c(Cl)ccc(F)c1Cl</t>
+          <t>CC1CN(C)CCc2ccc(Nc3ncc(Cl)c(N[C@H]4[C@@H](C(N)=O)[C@@H]5C=C[C@H]4C5)n3)cc21</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -4363,16 +4379,16 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>CHEMBL4716834</t>
+          <t>CHEMBL3267806</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Inhibition of ALK (unknown origin)</t>
+          <t>Inhibition of purified recombinant ALK (unknown origin) after 60 mins by ELISA</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -4412,7 +4428,7 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>CHEMBL4715698</t>
+          <t>CHEMBL3259567</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
@@ -4422,18 +4438,18 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>Bioorg Med Chem Lett</t>
+          <t>ACS Med. Chem. Lett.</t>
         </is>
       </c>
       <c r="V35" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="W35" t="n">
         <v>1</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3DF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9CB0&gt;</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4445,21 +4461,21 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CHEMBL1922975</t>
+          <t>CHEMBL3806280</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>408.46</v>
+        <v>559.67</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Cn1cc(/C=C2\C(=O)NN=C2c2cccnc2)c2c(OCc3ccccc3)cccc21</t>
+          <t>CN1CCN(c2ccc(C(=O)Nc3n[nH]c4ccc(Cc5cc(F)cc(F)c5)cc34)c(NCC3CN(C)C3)c2)CC1</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -4478,16 +4494,16 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>CHEMBL1925015</t>
+          <t>CHEMBL3806916</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Inhibition of ALK</t>
+          <t>Inhibition of recombinant ALK (unknown origin) in presence of gamma33-ATP</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -4502,7 +4518,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -4527,7 +4543,7 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>CHEMBL1921676</t>
+          <t>CHEMBL3804811</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
@@ -4537,18 +4553,18 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>Bioorg Med Chem Lett</t>
+          <t>J. Med. Chem.</t>
         </is>
       </c>
       <c r="V36" t="n">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="W36" t="n">
         <v>1</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3D80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9D20&gt;</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -4560,26 +4576,26 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CHEMBL464552</t>
+          <t>CHEMBL4176561</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>532.58</v>
+        <v>676.8</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>CNC(=O)c1c(F)cccc1Nc1nc(Nc2cc3c(cc2OC)CCN3C(=O)CN(C)C)nc2[nH]ccc12</t>
+          <t>CC(C)Oc1ccc(NC(=O)CNC(=O)c2cc(C(C)C)c(O)cc2O)cc1Nc1nccc(Nc2ccccc2S(=O)(=O)C(C)C)n1</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Kd</t>
+          <t>IC50</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -4593,16 +4609,16 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0.55</v>
+        <v>4.2</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>CHEMBL1908641</t>
+          <t>CHEMBL4146207</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Binding constant for ALK kinase domain</t>
+          <t>Inhibition of recombinant ALK (unknown origin) using poly (Glu,Tyr) 4:1 as substrate incubated for 60 mins by ELISA</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -4617,7 +4633,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -4642,7 +4658,7 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>CHEMBL1908390</t>
+          <t>CHEMBL4145454</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
@@ -4652,18 +4668,18 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>Nat Biotechnol</t>
+          <t>Eur J Med Chem</t>
         </is>
       </c>
       <c r="V37" t="n">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="W37" t="n">
         <v>1</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3D10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9D90&gt;</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4675,21 +4691,21 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CHEMBL3905111</t>
+          <t>CHEMBL3903868</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>523.47</v>
+        <v>436.52</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>CCc1cn2c(Cc3ccccc3Cl)nc(Nc3ccc(C4CCNCC4)cc3Cl)c(C(N)=O)c2n1</t>
+          <t>COc1cc(N2CCNCC2)ccc1Nc1nc(N2CCCC2)n2ccnc2c1C(N)=O</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4708,7 +4724,7 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -4774,7 +4790,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3CA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9E00&gt;</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4786,21 +4802,21 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CHEMBL4067871</t>
+          <t>CHEMBL4588120</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
-        <v>467.96</v>
+        <v>625.77</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>OC[C@H](Nc1cnc(-c2cc(Cl)ccc2O)c(-c2ccc3cnccc3c2)c1)c1ccccc1</t>
+          <t>Cc1cc(NC2CCN(C)CC2)ccc1-c1cc2c(N3CCC[C@H](C(=O)NCc4ccc(S(F)(F)F)cc4)C3)ncnc2[nH]1</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4819,16 +4835,16 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>93.90000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>CHEMBL4018644</t>
+          <t>CHEMBL4378261</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Inhibition of recombinant ALK (unknown origin) using poly (Glu,Tyr) 4:1 as substrate after 60 mins by ELISA</t>
+          <t>Inhibition of ALK (unknown origin) by TR-FRET assay</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -4868,7 +4884,7 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>CHEMBL4017490</t>
+          <t>CHEMBL4376817</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
@@ -4882,14 +4898,14 @@
         </is>
       </c>
       <c r="V39" t="n">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="W39" t="n">
         <v>1</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3C30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9E70&gt;</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4901,26 +4917,26 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CHEMBL2042694</t>
+          <t>CHEMBL3952424</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>486.99</v>
+        <v>562.41</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>CNS(=O)(=O)c1ccccc1Nc1nc(Nc2ccc3c(c2)CCCC(=O)N3C)ncc1Cl</t>
+          <t>COc1c(Nc2nc(Cc3c(Cl)cccc3Cl)c3nc[nH]c3c2C(N)=O)cc(F)c(N2CCNCC2)c1F</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>IC50</t>
+          <t>Ki</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -4934,16 +4950,16 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>CHEMBL2044751</t>
+          <t>CHEMBL3887723</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Inhibition of ALK</t>
+          <t>Enzyme Inhibition Assay: ALK kinase assays were conducted with the indicated final concentrations unless otherwise specified. In 384 well black plates (Axygen), 8 ul of compound (2% DMSO) was incubated with 8 ul Lck-peptide substrate (0.5 uM, biotin-Ahx-GAEEEIYAAFFA-COOH) and 8 ul of a mixture of ALK (3 nM, Millipore) and ATP (50 uM) in reaction buffer (50 mM Hepes, pH 7.4; 10 mM MgCl2; 2 mM MnCl2; 0.1 mM sodium orthovanadate; 0.01% BSA and 1 mM DTT (added fresh before assay) for 1 h at room temperature. Reactions were then quenched by the addition of 30 ul quench solution (streptavidin-allophycocyanin and Europium-cryptate PT66 monoclonal antibody in 40 mM Hepes, pH 7.4; 480 mM KF; 66 mM EDTA; 0.01% Tween-20; and 0.1% BSA) at room temperature. Plates were read 1 h after quenching on an Envision Multilaber Reader and IC50 values were calculated using a sigmoidal fit of the concentration/inhibition response curves. These values were converted to apparent Ki values.</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -4958,7 +4974,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -4983,28 +4999,24 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>CHEMBL2040771</t>
+          <t>CHEMBL3886424</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>ACS Med Chem Lett</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr"/>
       <c r="V40" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="W40" t="n">
         <v>1</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3BC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9EE0&gt;</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -5016,21 +5028,21 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CHEMBL3897963</t>
+          <t>CHEMBL3669135</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>393.55</v>
+        <v>487.63</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5.49</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>CCN(CC)CCOc1ccc2c(c1)C(C)(C)c1sc3ccccc3c1C2=O</t>
+          <t>COc1cc(C2CCN(C)CC2)c(C)cc1Nc1ncc2sc(C(N)=O)c(-c3ccccc3)c2n1</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -5049,16 +5061,16 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>93.84999999999999</v>
+        <v>14</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>CHEMBL3887074</t>
+          <t>CHEMBL3705810</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
+          <t>In Vitro Inhibition Assay: The reagents used have the following composition: Enzyme buffer (EB): 50 mM HEPES (pH: 7.0) (Sigma H7523), 100 mM NaCl (Sigma S7653), NaN.sub.3 at 0.01% (Sigma S8032), BSA at 0.005% (Sigma A2153), 0.05 mM sodium orthovanadate (Calbiochem 567540). Detection buffer (DB): 50 mM HEPES (pH: 7.0), BSA at 0.1%, 0.8 M KF (Fluka 60239), 20 mM EDTA (Sigma E5134).The peptide used is the one described in Biochemistry, 2005, 44, 8533-8542; A-21-K(biotin)NH.sub.2, obtained from NeoMPS (reference SP081233). All the HTRF reagents Mab PT66-K (61T66KLB) and streptavidin-XL665 (610SAXLB), and the SEB reagent, are purchased from Cisbio.The test is carried out in a 384-well plate (Greiner 784076). The serial dilutions are carried out in pure DMSO, and then an intermediate one-in-three dilution in water is carried out, with 1 microliter of each concentration being distributed, all these operations being performed using the Zephyr apparatus (Caliper Life Sciences).</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -5098,7 +5110,7 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>CHEMBL3886150</t>
+          <t>CHEMBL3639289</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
@@ -5115,7 +5127,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3B50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9F50&gt;</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -5127,21 +5139,21 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CHEMBL4856927</t>
+          <t>CHEMBL4476742</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>644.15</v>
+        <v>473.62</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>O=C(Nc1ccc(N2CCOCC2)c(C(=O)N2CCSCC2)c1)[C@@H]1CCCN1c1nc(Nc2cc(F)cc(F)c2)ncc1Cl</t>
+          <t>CNC(=O)[C@H]1CC[C@@H](n2/c(=N/C(=O)c3ccccc3)[nH]c3ccc(CN4CCCCC4)cc32)CC1</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -5160,16 +5172,16 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>CHEMBL4811214</t>
+          <t>CHEMBL4378233</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Inhibition of human ALK assessed as decreased enzymatic reactions measured after 1 hr by mobility shift assay</t>
+          <t>Inhibition of ALK (unknown origin)</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -5209,7 +5221,7 @@
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>CHEMBL4808257</t>
+          <t>CHEMBL4376817</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
@@ -5219,18 +5231,18 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>Bioorg Med Chem</t>
+          <t>J Med Chem</t>
         </is>
       </c>
       <c r="V42" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="W42" t="n">
         <v>1</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3AE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DA030&gt;</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -5242,21 +5254,21 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CHEMBL3262356</t>
+          <t>CHEMBL3890509</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>389.46</v>
+        <v>453.59</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>N[C@H]1CCCC[C@H]1Nc1cc2nc[nH]c(=O)c2c(Nc2cccc3cc[nH]c23)n1</t>
+          <t>CCc1cc2c(cc1N1CCN(C3CCC3)CC1)C(C)(C)c1[nH]c3nc(C#N)ccc3c1C2=O</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -5275,16 +5287,16 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>70</v>
+        <v>1.837</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>CHEMBL3269109</t>
+          <t>CHEMBL3887074</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Inhibition of ALK (unknown origin)</t>
+          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -5324,28 +5336,24 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>CHEMBL3259804</t>
+          <t>CHEMBL3886150</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>Bioorg Med Chem Lett</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr"/>
       <c r="V43" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="W43" t="n">
         <v>1</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3A70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DA0A0&gt;</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -5357,21 +5365,21 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CHEMBL3805020</t>
+          <t>CHEMBL3915577</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>573.6900000000001</v>
+        <v>547.5</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>CN1CCC(Nc2cc(N3CCN(C)CC3)ccc2C(=O)Nc2n[nH]c3ccc(Cc4cc(F)cc(F)c4)cc23)CC1</t>
+          <t>CC(C)(C)N1CCN(c2cc3c(cc2Br)C(=O)c2c([nH]c4cc(C#N)ccc24)C32CCOCC2)CC1</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -5390,16 +5398,16 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>15</v>
+        <v>0.32</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>CHEMBL3806916</t>
+          <t>CHEMBL3887074</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Inhibition of recombinant ALK (unknown origin) in presence of gamma33-ATP</t>
+          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -5439,28 +5447,24 @@
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>CHEMBL3804811</t>
+          <t>CHEMBL3886150</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>J Med Chem</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr"/>
       <c r="V44" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="W44" t="n">
         <v>1</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3A00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DA110&gt;</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -5472,21 +5476,21 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CHEMBL1165318</t>
+          <t>CHEMBL4108907</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>517.62</v>
+        <v>422.48</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>O=C(c1ccc(-c2cnc3c(c2)N(Cc2cc(F)ccc2F)CCN3)cc1)N1CCC[C@H]1CN1CCCC1</t>
+          <t>O=C1c2ccc(OC[C@@H](O)[C@H](O)CO)cc2C2(CCCCC2)c2oc3ccccc3c21</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -5505,16 +5509,16 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>CHEMBL1168570</t>
+          <t>CHEMBL3887074</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Inhibition of ALK by time-resolved fluorescence assay</t>
+          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -5529,7 +5533,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -5554,28 +5558,24 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>CHEMBL1165965</t>
+          <t>CHEMBL3886150</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>Bioorg Med Chem</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr"/>
       <c r="V45" t="n">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="W45" t="n">
         <v>1</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DA180&gt;</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5587,21 +5587,21 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CHEMBL4107978</t>
+          <t>CHEMBL3893380</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>531.5599999999999</v>
+        <v>455.56</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>CC1(C)c2cc(OC[C@@H](O)[C@H](O)CO)ccc2C(=O)c2c1oc1cc(OC(=O)NCc3ccccc3)ccc21</t>
+          <t>CC1(C)c2cc(OCC3CCN(C4COC4)CC3)ccc2C(=O)c2c1[nH]c1cc(C#N)ccc21</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -5620,7 +5620,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>28</v>
+        <v>2.9</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -5686,7 +5686,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DA1F0&gt;</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5698,21 +5698,21 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CHEMBL3651842</t>
+          <t>CHEMBL3948122</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>640.17</v>
+        <v>331.38</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>COc1cc2c(cc1Nc1ncc(Cl)c(Nc3ccccc3S(=O)(=O)C(C)C)n1)C(=O)N(C1CN(C(=O)[C@@H]3CCCN3)C1)C2</t>
+          <t>COc1ccc2c(c1)C(C)(C)c1[nH]c3c(N)c(C#N)ccc3c1C2=O</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -5731,16 +5731,16 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>12</v>
+        <v>1.93</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>CHEMBL3705165</t>
+          <t>CHEMBL3887074</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Enzyme Assay: The inhibition of ALK tyrosine kinase activity may be demonstrated using known methods, for example using the recombinant kinase domain of the ALK in analogy to the VEGF-R kinase assay described in J. Wood et al. Cancer Res. 60, 2178-2189 (2000).</t>
+          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>CHEMBL3638924</t>
+          <t>CHEMBL3886150</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
@@ -5790,14 +5790,14 @@
       </c>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="n">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="W47" t="n">
         <v>1</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DA260&gt;</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -5809,21 +5809,21 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CHEMBL4075720</t>
+          <t>CHEMBL4111037</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>448.56</v>
+        <v>401.85</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>CN1CCN(Cc2ccc(NC(=O)c3n[nH]cc3Nc3ncnc4sccc34)cc2)CC1</t>
+          <t>CC1(C)c2cc(OC[C@H](O)CO)c(O)cc2C(=O)c2c1[nH]c1cc(Cl)ccc21</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -5842,16 +5842,16 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>94.09999999999999</v>
+        <v>40.64</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>CHEMBL4059199</t>
+          <t>CHEMBL3887074</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Inhibition of human ALK using poly[Glu:Tyr] (4:1) as substrate preincubated for 20 mins followed by [gamma-33P]-ATP addition measure after 120 mins by filter binding method</t>
+          <t>Inhibition Assay: ALK-inhibiting activity was measured by following an activity of inhibiting phosphorylation by biotinylated peptide (EGPWLEEEEEAYGWMDF). For the detection of phosphorylation of the biotinylated peptide, time-resolved fluorescence measurement was performed using an anti-phosphorylated tyrosine antibody labeled with europium cryptate and streptavidin conjugated to XL665, i.e., an allophycocyanin derivative.</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -5891,28 +5891,24 @@
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>CHEMBL4052828</t>
+          <t>CHEMBL3886150</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>J Med Chem</t>
-        </is>
-      </c>
+          <t>BindingDB Database</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr"/>
       <c r="V48" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="W48" t="n">
         <v>1</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB37D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DA340&gt;</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -5924,21 +5920,21 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CHEMBL3651873</t>
+          <t>CHEMBL2418758</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>695.91</v>
+        <v>399.41</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Cc1cc(Nc2nc(Nc3ccccc3S(=O)(=O)C(C)C)c3c(C)[nH]nc3n2)c(OC(C)C)cc1C1CCN([C@H]2CCS(=O)(=O)C2)CC1</t>
+          <t>Cn1cc(-c2cnc3[nH]cc(-c4cnn(Cc5cccc([N+](=O)[O-])c5)c4)c3c2)cn1</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -5957,16 +5953,16 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>CHEMBL3705165</t>
+          <t>CHEMBL2423641</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Enzyme Assay: The inhibition of ALK tyrosine kinase activity may be demonstrated using known methods, for example using the recombinant kinase domain of the ALK in analogy to the VEGF-R kinase assay described in J. Wood et al. Cancer Res. 60, 2178-2189 (2000).</t>
+          <t>Inhibition of wild type human recombinant ALK after 30 mins by TR-FRET assay</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -6006,15 +6002,19 @@
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>CHEMBL3638924</t>
+          <t>CHEMBL2417505</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>BindingDB Database</t>
-        </is>
-      </c>
-      <c r="U49" t="inlineStr"/>
+          <t>Scientific Literature</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Bioorg. Med. Chem. Lett.</t>
+        </is>
+      </c>
       <c r="V49" t="n">
         <v>2013</v>
       </c>
@@ -6023,7 +6023,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DA3B0&gt;</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -6035,26 +6035,26 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CHEMBL3965445</t>
+          <t>CHEMBL3651870</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>564.4</v>
+        <v>505.65</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>NC(=O)c1c(Nc2ccc(N3CCNCC3)cc2C(F)(F)F)nc(Cc2c(Cl)cccc2Cl)c2nc[nH]c12</t>
+          <t>Cc1[nH]nc2nc(Nc3ccc(C4CCNCC4)cc3)nc(Nc3ccccc3S(=O)(=O)C(C)C)c12</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Ki</t>
+          <t>IC50</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -6068,16 +6068,16 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>CHEMBL3887723</t>
+          <t>CHEMBL3705165</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Enzyme Inhibition Assay: ALK kinase assays were conducted with the indicated final concentrations unless otherwise specified. In 384 well black plates (Axygen), 8 ul of compound (2% DMSO) was incubated with 8 ul Lck-peptide substrate (0.5 uM, biotin-Ahx-GAEEEIYAAFFA-COOH) and 8 ul of a mixture of ALK (3 nM, Millipore) and ATP (50 uM) in reaction buffer (50 mM Hepes, pH 7.4; 10 mM MgCl2; 2 mM MnCl2; 0.1 mM sodium orthovanadate; 0.01% BSA and 1 mM DTT (added fresh before assay) for 1 h at room temperature. Reactions were then quenched by the addition of 30 ul quench solution (streptavidin-allophycocyanin and Europium-cryptate PT66 monoclonal antibody in 40 mM Hepes, pH 7.4; 480 mM KF; 66 mM EDTA; 0.01% Tween-20; and 0.1% BSA) at room temperature. Plates were read 1 h after quenching on an Envision Multilaber Reader and IC50 values were calculated using a sigmoidal fit of the concentration/inhibition response curves. These values were converted to apparent Ki values.</t>
+          <t>Enzyme Assay: The inhibition of ALK tyrosine kinase activity may be demonstrated using known methods, for example using the recombinant kinase domain of the ALK in analogy to the VEGF-R kinase assay described in J. Wood et al. Cancer Res. 60, 2178-2189 (2000).</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>CHEMBL3886424</t>
+          <t>CHEMBL3638924</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
@@ -6127,14 +6127,14 @@
       </c>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="W50" t="n">
         <v>1</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB36F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DA420&gt;</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -6146,21 +6146,21 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CHEMBL4588120</t>
+          <t>CHEMBL4852786</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>625.77</v>
+        <v>641.12</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6.79</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Cc1cc(NC2CCN(C)CC2)ccc1-c1cc2c(N3CCC[C@H](C(=O)NCc4ccc(S(F)(F)F)cc4)C3)ncnc2[nH]1</t>
+          <t>CN1CCN(C(=O)c2cc(NC(=O)[C@@H]3CCCN3c3nc(Nc4cc(F)cc(F)c4)ncc3Cl)ccc2N2CCOCC2)CC1</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -6179,16 +6179,16 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0.6</v>
+        <v>60</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>CHEMBL4378261</t>
+          <t>CHEMBL4811215</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Inhibition of ALK (unknown origin) by TR-FRET assay</t>
+          <t>Inhibition of human ALK secondary L1196M mutant assessed as decreased enzymatic reactions measured after 1 hr by mobility shift assay</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -6228,7 +6228,7 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>CHEMBL4376817</t>
+          <t>CHEMBL4808257</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
@@ -6238,18 +6238,18 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>J Med Chem</t>
+          <t>Bioorg Med Chem</t>
         </is>
       </c>
       <c r="V51" t="n">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="W51" t="n">
         <v>1</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002511BAB3680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DA5E0&gt;</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">

--- a/Dataset/ChEMBL/ALK/ALK_preprocessing/ALK_g1.xlsx
+++ b/Dataset/ChEMBL/ALK/ALK_preprocessing/ALK_g1.xlsx
@@ -666,7 +666,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D8AC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91CAC0&gt;</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D8C10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91CC10&gt;</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D8C80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91CC80&gt;</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D8D60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91CD60&gt;</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D8DD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91CDD0&gt;</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D8E40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91CE40&gt;</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D8F20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91CF20&gt;</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D8F90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91CF90&gt;</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9000&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91D000&gt;</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9070&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91D070&gt;</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D90E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91D0E0&gt;</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1939,7 +1939,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91D150&gt;</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D91C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91D1C0&gt;</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9230&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91D230&gt;</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2280,7 +2280,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D92A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91D2A0&gt;</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9310&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91D310&gt;</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9380&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91D380&gt;</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2625,7 +2625,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D93F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91D3F0&gt;</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2740,7 +2740,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9460&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91D460&gt;</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D94D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91D4D0&gt;</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91D540&gt;</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D95B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91D5B0&gt;</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91D690&gt;</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9700&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91D700&gt;</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D97E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91D7E0&gt;</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3533,7 +3533,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91D850&gt;</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D98C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91D8C0&gt;</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3759,7 +3759,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D99A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91D9A0&gt;</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -3874,7 +3874,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9A10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91DA10&gt;</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9A80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91DA80&gt;</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -4104,7 +4104,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9AF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91DAF0&gt;</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -4219,7 +4219,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9B60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91DB60&gt;</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -4334,7 +4334,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9BD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91DBD0&gt;</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9CB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91DCB0&gt;</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9D20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91DD20&gt;</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91DD90&gt;</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91DE00&gt;</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4905,7 +4905,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91DE70&gt;</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91DEE0&gt;</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3D9F50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91DF50&gt;</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -5242,7 +5242,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DA030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91E030&gt;</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DA0A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91E0A0&gt;</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DA110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91E110&gt;</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DA180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91E180&gt;</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DA1F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91E1F0&gt;</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DA260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91E260&gt;</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -5908,7 +5908,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DA340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91E340&gt;</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -6023,7 +6023,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DA3B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91E3B0&gt;</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -6134,7 +6134,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DA420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91E420&gt;</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -6249,7 +6249,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001FA1A3DA5E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001E87F91E5E0&gt;</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
